--- a/Lab2/excel_files/sandglass_test.xlsx
+++ b/Lab2/excel_files/sandglass_test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -28,27 +28,18 @@
     <t xml:space="preserve">bool</t>
   </si>
   <si>
+    <t xml:space="preserve">Sandglass_100</t>
+  </si>
+  <si>
     <t xml:space="preserve">sandglass_81</t>
   </si>
   <si>
-    <t xml:space="preserve">sandglass_82</t>
-  </si>
-  <si>
     <t xml:space="preserve">sandglass_83</t>
   </si>
   <si>
     <t xml:space="preserve">sandglass_84</t>
   </si>
   <si>
-    <t xml:space="preserve">sandglass_85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sandglass_86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sandglass_87</t>
-  </si>
-  <si>
     <t xml:space="preserve">sandglass_88</t>
   </si>
   <si>
@@ -77,9 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve">sandglass_97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sandglass_98</t>
   </si>
   <si>
     <t xml:space="preserve">sandglass_99</t>
@@ -183,7 +171,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -236,7 +224,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -268,7 +256,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -284,7 +272,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -292,7 +280,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -319,38 +307,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
